--- a/data/fake_allocation_policies.xlsx
+++ b/data/fake_allocation_policies.xlsx
@@ -22,22 +22,22 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
-    <t xml:space="preserve">Classe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Conservador</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Moderado Conservador</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Moderado</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Moderado Agressivo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Agressivo</t>
+    <t xml:space="preserve">classe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">conservador</t>
+  </si>
+  <si>
+    <t xml:space="preserve">moderado-conservador</t>
+  </si>
+  <si>
+    <t xml:space="preserve">moderado</t>
+  </si>
+  <si>
+    <t xml:space="preserve">moderado-agressivo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">agressivo</t>
   </si>
   <si>
     <t xml:space="preserve">Renda Fixa Pós-Fixada</t>
@@ -182,7 +182,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -192,10 +192,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -236,7 +232,7 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A12" activeCellId="0" sqref="A12"/>
+      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -248,186 +244,186 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="22.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="11.85"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1022" min="7" style="2" width="8.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1023" style="3" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1023" style="0" width="9.14"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="4" t="s">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="6" t="n">
+      <c r="B2" s="5" t="n">
         <v>0.7</v>
       </c>
-      <c r="C2" s="6" t="n">
+      <c r="C2" s="5" t="n">
         <v>0.46</v>
       </c>
-      <c r="D2" s="6" t="n">
+      <c r="D2" s="5" t="n">
         <v>0.3</v>
       </c>
-      <c r="E2" s="6" t="n">
+      <c r="E2" s="5" t="n">
         <v>0.15</v>
       </c>
-      <c r="F2" s="6" t="n">
+      <c r="F2" s="5" t="n">
         <v>0.05</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="6" t="n">
+      <c r="B3" s="5" t="n">
         <v>0.12</v>
       </c>
-      <c r="C3" s="6" t="n">
+      <c r="C3" s="5" t="n">
         <v>0.16</v>
       </c>
-      <c r="D3" s="6" t="n">
+      <c r="D3" s="5" t="n">
         <v>0.24</v>
       </c>
-      <c r="E3" s="6" t="n">
+      <c r="E3" s="5" t="n">
         <v>0.2</v>
       </c>
-      <c r="F3" s="6" t="n">
+      <c r="F3" s="5" t="n">
         <v>0.19</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="6" t="n">
+      <c r="B4" s="5" t="n">
         <v>0.05</v>
       </c>
-      <c r="C4" s="6" t="n">
+      <c r="C4" s="5" t="n">
         <v>0.08</v>
       </c>
-      <c r="D4" s="6" t="n">
+      <c r="D4" s="5" t="n">
         <v>0.1</v>
       </c>
-      <c r="E4" s="6" t="n">
+      <c r="E4" s="5" t="n">
         <v>0.11</v>
       </c>
-      <c r="F4" s="6" t="n">
+      <c r="F4" s="5" t="n">
         <v>0.1</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="6" t="n">
+      <c r="B5" s="5" t="n">
         <v>0.02</v>
       </c>
-      <c r="C5" s="6" t="n">
+      <c r="C5" s="5" t="n">
         <v>0.04</v>
       </c>
-      <c r="D5" s="6" t="n">
+      <c r="D5" s="5" t="n">
         <v>0.07</v>
       </c>
-      <c r="E5" s="6" t="n">
+      <c r="E5" s="5" t="n">
         <v>0.14</v>
       </c>
-      <c r="F5" s="6" t="n">
+      <c r="F5" s="5" t="n">
         <v>0.2</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="6" t="n">
+      <c r="B6" s="5" t="n">
         <v>0.09</v>
       </c>
-      <c r="C6" s="6" t="n">
+      <c r="C6" s="5" t="n">
         <v>0.21</v>
       </c>
-      <c r="D6" s="6" t="n">
+      <c r="D6" s="5" t="n">
         <v>0.22</v>
       </c>
-      <c r="E6" s="6" t="n">
+      <c r="E6" s="5" t="n">
         <v>0.3</v>
       </c>
-      <c r="F6" s="6" t="n">
+      <c r="F6" s="5" t="n">
         <v>0.31</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="C7" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="D7" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="E7" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" s="6" t="n">
+      <c r="B7" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" s="5" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="6" t="n">
+      <c r="B8" s="5" t="n">
         <v>0.02</v>
       </c>
-      <c r="C8" s="6" t="n">
+      <c r="C8" s="5" t="n">
         <v>0.05</v>
       </c>
-      <c r="D8" s="6" t="n">
+      <c r="D8" s="5" t="n">
         <v>0.07</v>
       </c>
-      <c r="E8" s="6" t="n">
+      <c r="E8" s="5" t="n">
         <v>0.1</v>
       </c>
-      <c r="F8" s="6" t="n">
+      <c r="F8" s="5" t="n">
         <v>0.15</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="C9" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="D9" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="E9" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" s="6" t="n">
+      <c r="B9" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" s="5" t="n">
         <v>0</v>
       </c>
     </row>
